--- a/Instances/04_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/04_Normal_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2908,7 +2908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3265,6 +3265,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>600</v>
+      </c>
+      <c r="D6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>420</v>
+      </c>
+      <c r="J6" t="n">
+        <v>300</v>
+      </c>
+      <c r="K6" t="n">
+        <v>900</v>
+      </c>
+      <c r="L6" t="n">
+        <v>210</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3636,6 +3707,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
